--- a/Data Center/A5.xlsx
+++ b/Data Center/A5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://intel-my.sharepoint.com/personal/nemanja_marjanovic_intel_com/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krich\Desktop\LEVEL 9\Hybrid Cloud Technology 2025\-HCT\Data Center\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5DF21CF9-1229-464F-909A-35CF86B1A193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0981EE6-A8A6-4D8C-94B3-4062D35C32EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{65C32D97-3B3D-43A5-AC56-D16334BD1267}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{65C32D97-3B3D-43A5-AC56-D16334BD1267}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="4" r:id="rId1"/>
@@ -32,7 +32,6 @@
     <definedName name="Size_of_DRAM_GB">Compute!$B$22</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,8 +43,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -244,9 +241,6 @@
     <t>Applications per Cluster</t>
   </si>
   <si>
-    <t>Result</t>
-  </si>
-  <si>
     <t>Do not change</t>
   </si>
   <si>
@@ -344,13 +338,16 @@
   </si>
   <si>
     <t>BES2</t>
+  </si>
+  <si>
+    <t>Results</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -661,6 +658,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -673,38 +709,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -712,23 +718,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1071,118 +1068,118 @@
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="21.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="30">
+        <v>50</v>
+      </c>
+      <c r="B1" s="26">
         <f>server_p_cluster</f>
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15">
       <c r="A2" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="31">
+      <c r="B2" s="27">
         <f>Applications_per_cluster</f>
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" s="1">
         <f>B3/B2</f>
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6" s="1">
         <f>B5*B1</f>
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B7" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="34" t="s">
-        <v>53</v>
+    <row r="8" spans="1:9">
+      <c r="A8" s="30" t="s">
+        <v>52</v>
       </c>
       <c r="B8" s="1">
         <f>B6*B7</f>
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9">
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9">
       <c r="B10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9">
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9">
       <c r="B12" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B14" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" t="s">
         <v>45</v>
       </c>
-      <c r="B15" t="s">
+    </row>
+    <row r="16" spans="1:9" ht="15">
+      <c r="A16" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>48</v>
       </c>
       <c r="B17" s="1">
         <v>512</v>
@@ -1202,45 +1199,45 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="49"/>
-      <c r="B1" s="49"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="51" t="s">
+    <row r="1" spans="1:8" ht="15">
+      <c r="A1" s="39"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="50"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="49"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="51" t="s">
+      <c r="E1" s="40"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+    </row>
+    <row r="2" spans="1:8" ht="15">
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="D2" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="50" t="s">
+      <c r="E2" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1254,7 +1251,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="15" thickBot="1">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1268,7 +1265,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="15" thickBot="1">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1288,11 +1285,11 @@
       </c>
       <c r="F5" s="1"/>
       <c r="G5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" s="32"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+      <c r="H5" s="28"/>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1312,11 +1309,11 @@
       </c>
       <c r="F6" s="1"/>
       <c r="G6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" s="33"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="H6" s="29"/>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1336,7 +1333,7 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1356,7 +1353,7 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1376,7 +1373,7 @@
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1384,7 +1381,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1392,7 +1389,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1405,7 +1402,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -1416,7 +1413,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="15" thickBot="1">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -1429,7 +1426,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="16.5" thickBot="1">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1446,7 +1443,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -1454,7 +1451,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" ht="15" thickBot="1">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -1462,7 +1459,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" ht="16.5" thickBot="1">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -1471,7 +1468,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" ht="15.75" thickBot="1">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -1480,7 +1477,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" ht="15.75" thickBot="1">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -1503,12 +1500,12 @@
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16">
       <c r="E1" s="11"/>
       <c r="F1" s="12"/>
       <c r="G1" s="13"/>
@@ -1522,77 +1519,77 @@
       <c r="O1" s="12"/>
       <c r="P1" s="13"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="C2" s="23" t="s">
+    <row r="2" spans="1:16" ht="15">
+      <c r="C2" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="24" t="s">
+      <c r="D2" s="42"/>
+      <c r="E2" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="25"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="24" t="s">
+      <c r="F2" s="44"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="25"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="24" t="s">
+      <c r="I2" s="44"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="25"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="24" t="s">
+      <c r="L2" s="44"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="O2" s="25"/>
-      <c r="P2" s="26"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O2" s="44"/>
+      <c r="P2" s="45"/>
+    </row>
+    <row r="3" spans="1:16" ht="15">
       <c r="C3" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="29" t="s">
+      <c r="G3" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="27" t="s">
+      <c r="H3" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="28" t="s">
+      <c r="I3" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="29" t="s">
+      <c r="J3" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="K3" s="27" t="s">
+      <c r="K3" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="L3" s="28" t="s">
+      <c r="L3" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="29" t="s">
+      <c r="M3" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="N3" s="27" t="s">
+      <c r="N3" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="O3" s="28" t="s">
+      <c r="O3" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="P3" s="29" t="s">
+      <c r="P3" s="25" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1612,7 +1609,7 @@
       <c r="O4" s="9"/>
       <c r="P4" s="15"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1638,7 +1635,7 @@
       <c r="O5" s="9"/>
       <c r="P5" s="15"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1658,7 +1655,7 @@
       <c r="O6" s="9"/>
       <c r="P6" s="15"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1708,7 +1705,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1734,7 +1731,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1766,7 +1763,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16">
       <c r="E10" s="14"/>
       <c r="F10" s="9"/>
       <c r="G10" s="15"/>
@@ -1780,7 +1777,7 @@
       <c r="O10" s="9"/>
       <c r="P10" s="15"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16">
       <c r="E11" s="14"/>
       <c r="F11" s="9"/>
       <c r="G11" s="15"/>
@@ -1794,7 +1791,7 @@
       <c r="O11" s="9"/>
       <c r="P11" s="15"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16">
       <c r="E12" s="14"/>
       <c r="F12" s="9"/>
       <c r="G12" s="15"/>
@@ -1808,7 +1805,7 @@
       <c r="O12" s="9"/>
       <c r="P12" s="15"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16">
       <c r="E13" s="14"/>
       <c r="F13" s="9"/>
       <c r="G13" s="15"/>
@@ -1822,7 +1819,7 @@
       <c r="O13" s="9"/>
       <c r="P13" s="15"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16">
       <c r="E14" s="14"/>
       <c r="F14" s="9"/>
       <c r="G14" s="15"/>
@@ -1836,7 +1833,7 @@
       <c r="O14" s="9"/>
       <c r="P14" s="15"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16">
       <c r="E15" s="14"/>
       <c r="F15" s="9"/>
       <c r="G15" s="15"/>
@@ -1850,7 +1847,7 @@
       <c r="O15" s="9"/>
       <c r="P15" s="15"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16">
       <c r="E16" s="14"/>
       <c r="F16" s="9"/>
       <c r="G16" s="15"/>
@@ -1864,7 +1861,7 @@
       <c r="O16" s="9"/>
       <c r="P16" s="15"/>
     </row>
-    <row r="17" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:16">
       <c r="E17" s="14"/>
       <c r="F17" s="9"/>
       <c r="G17" s="15"/>
@@ -1878,7 +1875,7 @@
       <c r="O17" s="9"/>
       <c r="P17" s="15"/>
     </row>
-    <row r="18" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="5:16">
       <c r="E18" s="14"/>
       <c r="F18" s="9"/>
       <c r="G18" s="15"/>
@@ -1892,7 +1889,7 @@
       <c r="O18" s="9"/>
       <c r="P18" s="15"/>
     </row>
-    <row r="19" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="5:16">
       <c r="E19" s="14"/>
       <c r="F19" s="9"/>
       <c r="G19" s="15"/>
@@ -1906,7 +1903,7 @@
       <c r="O19" s="9"/>
       <c r="P19" s="15"/>
     </row>
-    <row r="20" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="5:16">
       <c r="E20" s="14"/>
       <c r="F20" s="9"/>
       <c r="G20" s="15"/>
@@ -1920,7 +1917,7 @@
       <c r="O20" s="9"/>
       <c r="P20" s="15"/>
     </row>
-    <row r="21" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="5:16">
       <c r="E21" s="14"/>
       <c r="F21" s="9"/>
       <c r="G21" s="15"/>
@@ -1934,7 +1931,7 @@
       <c r="O21" s="9"/>
       <c r="P21" s="15"/>
     </row>
-    <row r="22" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="5:16">
       <c r="E22" s="14"/>
       <c r="F22" s="9"/>
       <c r="G22" s="15"/>
@@ -1948,7 +1945,7 @@
       <c r="O22" s="9"/>
       <c r="P22" s="15"/>
     </row>
-    <row r="23" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="5:16">
       <c r="E23" s="14"/>
       <c r="F23" s="9"/>
       <c r="G23" s="15"/>
@@ -1962,7 +1959,7 @@
       <c r="O23" s="9"/>
       <c r="P23" s="15"/>
     </row>
-    <row r="24" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="5:16">
       <c r="E24" s="14"/>
       <c r="F24" s="9"/>
       <c r="G24" s="15"/>
@@ -1976,7 +1973,7 @@
       <c r="O24" s="9"/>
       <c r="P24" s="15"/>
     </row>
-    <row r="25" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="5:16">
       <c r="E25" s="14"/>
       <c r="F25" s="9"/>
       <c r="G25" s="15"/>
@@ -1990,7 +1987,7 @@
       <c r="O25" s="9"/>
       <c r="P25" s="15"/>
     </row>
-    <row r="26" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="5:16">
       <c r="E26" s="14"/>
       <c r="F26" s="9"/>
       <c r="G26" s="15"/>
@@ -2004,7 +2001,7 @@
       <c r="O26" s="9"/>
       <c r="P26" s="15"/>
     </row>
-    <row r="27" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="5:16">
       <c r="E27" s="14"/>
       <c r="F27" s="9"/>
       <c r="G27" s="15"/>
@@ -2018,7 +2015,7 @@
       <c r="O27" s="9"/>
       <c r="P27" s="15"/>
     </row>
-    <row r="28" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="5:16">
       <c r="E28" s="14"/>
       <c r="F28" s="9"/>
       <c r="G28" s="15"/>
@@ -2032,7 +2029,7 @@
       <c r="O28" s="9"/>
       <c r="P28" s="15"/>
     </row>
-    <row r="29" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="5:16">
       <c r="E29" s="14"/>
       <c r="F29" s="9"/>
       <c r="G29" s="15"/>
@@ -2046,7 +2043,7 @@
       <c r="O29" s="9"/>
       <c r="P29" s="15"/>
     </row>
-    <row r="30" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="5:16">
       <c r="E30" s="14"/>
       <c r="F30" s="9"/>
       <c r="G30" s="15"/>
@@ -2060,7 +2057,7 @@
       <c r="O30" s="9"/>
       <c r="P30" s="15"/>
     </row>
-    <row r="31" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="5:16">
       <c r="E31" s="14"/>
       <c r="F31" s="9"/>
       <c r="G31" s="15"/>
@@ -2074,7 +2071,7 @@
       <c r="O31" s="9"/>
       <c r="P31" s="15"/>
     </row>
-    <row r="32" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="5:16">
       <c r="E32" s="14"/>
       <c r="F32" s="9"/>
       <c r="G32" s="15"/>
@@ -2088,7 +2085,7 @@
       <c r="O32" s="9"/>
       <c r="P32" s="15"/>
     </row>
-    <row r="33" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="5:16">
       <c r="E33" s="14"/>
       <c r="F33" s="9"/>
       <c r="G33" s="15"/>
@@ -2102,7 +2099,7 @@
       <c r="O33" s="9"/>
       <c r="P33" s="15"/>
     </row>
-    <row r="34" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="5:16">
       <c r="E34" s="14"/>
       <c r="F34" s="9"/>
       <c r="G34" s="15"/>
@@ -2116,7 +2113,7 @@
       <c r="O34" s="9"/>
       <c r="P34" s="15"/>
     </row>
-    <row r="35" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="5:16">
       <c r="E35" s="14"/>
       <c r="F35" s="9"/>
       <c r="G35" s="15"/>
@@ -2130,7 +2127,7 @@
       <c r="O35" s="9"/>
       <c r="P35" s="15"/>
     </row>
-    <row r="36" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="5:16">
       <c r="E36" s="14"/>
       <c r="F36" s="9"/>
       <c r="G36" s="15"/>
@@ -2144,7 +2141,7 @@
       <c r="O36" s="9"/>
       <c r="P36" s="15"/>
     </row>
-    <row r="37" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="5:16">
       <c r="E37" s="14"/>
       <c r="F37" s="9"/>
       <c r="G37" s="15"/>
@@ -2158,7 +2155,7 @@
       <c r="O37" s="9"/>
       <c r="P37" s="15"/>
     </row>
-    <row r="38" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="5:16">
       <c r="E38" s="14"/>
       <c r="F38" s="9"/>
       <c r="G38" s="15"/>
@@ -2172,7 +2169,7 @@
       <c r="O38" s="9"/>
       <c r="P38" s="15"/>
     </row>
-    <row r="39" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="5:16">
       <c r="E39" s="14"/>
       <c r="F39" s="9"/>
       <c r="G39" s="15"/>
@@ -2186,7 +2183,7 @@
       <c r="O39" s="9"/>
       <c r="P39" s="15"/>
     </row>
-    <row r="40" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="5:16">
       <c r="E40" s="14"/>
       <c r="F40" s="9"/>
       <c r="G40" s="15"/>
@@ -2200,7 +2197,7 @@
       <c r="O40" s="9"/>
       <c r="P40" s="15"/>
     </row>
-    <row r="41" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="5:16">
       <c r="E41" s="14"/>
       <c r="F41" s="9"/>
       <c r="G41" s="15"/>
@@ -2214,7 +2211,7 @@
       <c r="O41" s="9"/>
       <c r="P41" s="15"/>
     </row>
-    <row r="42" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="5:16">
       <c r="E42" s="14"/>
       <c r="F42" s="9"/>
       <c r="G42" s="15"/>
@@ -2228,7 +2225,7 @@
       <c r="O42" s="9"/>
       <c r="P42" s="15"/>
     </row>
-    <row r="43" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="5:16">
       <c r="E43" s="14"/>
       <c r="F43" s="9"/>
       <c r="G43" s="15"/>
@@ -2242,7 +2239,7 @@
       <c r="O43" s="9"/>
       <c r="P43" s="15"/>
     </row>
-    <row r="44" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="5:16">
       <c r="E44" s="14"/>
       <c r="F44" s="9"/>
       <c r="G44" s="15"/>
@@ -2256,7 +2253,7 @@
       <c r="O44" s="9"/>
       <c r="P44" s="15"/>
     </row>
-    <row r="45" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="45" spans="5:16">
       <c r="E45" s="14"/>
       <c r="F45" s="9"/>
       <c r="G45" s="15"/>
@@ -2270,7 +2267,7 @@
       <c r="O45" s="9"/>
       <c r="P45" s="15"/>
     </row>
-    <row r="46" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="5:16">
       <c r="E46" s="14"/>
       <c r="F46" s="9"/>
       <c r="G46" s="15"/>
@@ -2284,7 +2281,7 @@
       <c r="O46" s="9"/>
       <c r="P46" s="15"/>
     </row>
-    <row r="47" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="5:16">
       <c r="E47" s="14"/>
       <c r="F47" s="9"/>
       <c r="G47" s="15"/>
@@ -2298,7 +2295,7 @@
       <c r="O47" s="9"/>
       <c r="P47" s="15"/>
     </row>
-    <row r="48" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="48" spans="5:16">
       <c r="E48" s="14"/>
       <c r="F48" s="9"/>
       <c r="G48" s="15"/>
@@ -2312,7 +2309,7 @@
       <c r="O48" s="9"/>
       <c r="P48" s="15"/>
     </row>
-    <row r="49" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="49" spans="5:16">
       <c r="E49" s="14"/>
       <c r="F49" s="9"/>
       <c r="G49" s="15"/>
@@ -2326,7 +2323,7 @@
       <c r="O49" s="9"/>
       <c r="P49" s="15"/>
     </row>
-    <row r="50" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="50" spans="5:16">
       <c r="E50" s="14"/>
       <c r="F50" s="9"/>
       <c r="G50" s="15"/>
@@ -2340,7 +2337,7 @@
       <c r="O50" s="9"/>
       <c r="P50" s="15"/>
     </row>
-    <row r="51" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="51" spans="5:16">
       <c r="E51" s="14"/>
       <c r="F51" s="9"/>
       <c r="G51" s="15"/>
@@ -2354,7 +2351,7 @@
       <c r="O51" s="9"/>
       <c r="P51" s="15"/>
     </row>
-    <row r="52" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="52" spans="5:16">
       <c r="E52" s="14"/>
       <c r="F52" s="9"/>
       <c r="G52" s="15"/>
@@ -2368,7 +2365,7 @@
       <c r="O52" s="9"/>
       <c r="P52" s="15"/>
     </row>
-    <row r="53" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="53" spans="5:16">
       <c r="E53" s="14"/>
       <c r="F53" s="9"/>
       <c r="G53" s="15"/>
@@ -2382,7 +2379,7 @@
       <c r="O53" s="9"/>
       <c r="P53" s="15"/>
     </row>
-    <row r="54" spans="5:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="5:16" ht="15" thickBot="1">
       <c r="E54" s="18"/>
       <c r="F54" s="19"/>
       <c r="G54" s="20"/>
@@ -2419,37 +2416,37 @@
       <selection pane="bottomLeft" activeCell="F27" sqref="F27:F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="2" width="8.88671875" style="1"/>
-    <col min="3" max="3" width="8.88671875" style="14"/>
-    <col min="4" max="5" width="8.88671875" style="9"/>
-    <col min="6" max="6" width="29.6640625" style="9" customWidth="1"/>
-    <col min="7" max="8" width="8.88671875" style="9"/>
-    <col min="9" max="9" width="8.88671875" style="15"/>
-    <col min="12" max="12" width="8.88671875" style="14"/>
-    <col min="13" max="13" width="40.33203125" style="9" customWidth="1"/>
-    <col min="14" max="14" width="8.88671875" style="15"/>
+    <col min="1" max="2" width="8.875" style="1"/>
+    <col min="3" max="3" width="8.875" style="14"/>
+    <col min="4" max="5" width="8.875" style="9"/>
+    <col min="6" max="6" width="29.625" style="9" customWidth="1"/>
+    <col min="7" max="8" width="8.875" style="9"/>
+    <col min="9" max="9" width="8.875" style="15"/>
+    <col min="12" max="12" width="8.875" style="14"/>
+    <col min="13" max="13" width="40.375" style="9" customWidth="1"/>
+    <col min="14" max="14" width="8.875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="25.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="26.25">
       <c r="C1" s="11"/>
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
-      <c r="F1" s="45" t="s">
-        <v>67</v>
+      <c r="F1" s="36" t="s">
+        <v>66</v>
       </c>
       <c r="G1" s="12"/>
       <c r="H1" s="12"/>
       <c r="I1" s="13"/>
       <c r="L1" s="11"/>
-      <c r="M1" s="45" t="s">
-        <v>68</v>
+      <c r="M1" s="36" t="s">
+        <v>67</v>
       </c>
       <c r="N1" s="13"/>
     </row>
-    <row r="2" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="44"/>
+    <row r="2" spans="1:14" ht="14.45" customHeight="1">
+      <c r="C2" s="35"/>
       <c r="D2" s="21"/>
       <c r="E2" s="21"/>
       <c r="F2" s="21"/>
@@ -2457,601 +2454,601 @@
       <c r="H2" s="21"/>
       <c r="I2" s="22"/>
     </row>
-    <row r="3" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="44"/>
+    <row r="3" spans="1:14" ht="14.45" customHeight="1">
+      <c r="C3" s="35"/>
       <c r="D3" s="21"/>
-      <c r="E3" s="47">
+      <c r="E3" s="38">
         <f>SUM(E13:E22)</f>
         <v>5</v>
       </c>
       <c r="F3" s="21"/>
       <c r="G3" s="21"/>
-      <c r="H3" s="47">
+      <c r="H3" s="38">
         <f>SUM(H13:H22)</f>
         <v>5</v>
       </c>
       <c r="I3" s="22"/>
-      <c r="L3" s="40">
+      <c r="L3" s="33">
         <f>SUM(L12:L29)</f>
         <v>13</v>
       </c>
-      <c r="M3" s="46"/>
-      <c r="N3" s="41">
+      <c r="M3" s="37"/>
+      <c r="N3" s="34">
         <f>SUM(N12:N29)</f>
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="15">
       <c r="A4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="40">
+        <v>53</v>
+      </c>
+      <c r="C4" s="33">
         <f>SUM(C6:C53)</f>
         <v>5300</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="44"/>
+      <c r="G4" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="25"/>
-      <c r="G4" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="H4" s="25"/>
-      <c r="I4" s="41">
+      <c r="H4" s="44"/>
+      <c r="I4" s="34">
         <f>SUM(I13:I53)</f>
         <v>5000</v>
       </c>
-      <c r="L4" s="40" t="s">
+      <c r="L4" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="N4" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="N4" s="17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>44.5</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D5" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>58</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>59</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="H5" s="10" t="s">
-        <v>59</v>
-      </c>
       <c r="I5" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L5" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M5" s="10"/>
       <c r="N5" s="17" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15" thickBot="1">
       <c r="A6" s="1">
         <v>48</v>
       </c>
-      <c r="B6" s="39">
-        <f>A6*HU</f>
+      <c r="B6" s="32">
+        <f t="shared" ref="B6:B53" si="0">A6*HU</f>
         <v>2136</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" ht="15" thickBot="1">
       <c r="A7" s="1">
         <v>47</v>
       </c>
-      <c r="B7" s="39">
-        <f>A7*HU</f>
+      <c r="B7" s="32">
+        <f t="shared" si="0"/>
         <v>2091.5</v>
       </c>
       <c r="C7" s="16">
         <v>100</v>
       </c>
-      <c r="F7" s="38" t="s">
-        <v>60</v>
+      <c r="F7" s="31" t="s">
+        <v>59</v>
       </c>
       <c r="I7" s="17">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" ht="15" thickBot="1">
       <c r="A8" s="1">
         <v>46</v>
       </c>
-      <c r="B8" s="39">
-        <f>A8*HU</f>
+      <c r="B8" s="32">
+        <f t="shared" si="0"/>
         <v>2047</v>
       </c>
       <c r="C8" s="16"/>
       <c r="I8" s="17"/>
     </row>
-    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" ht="15" thickBot="1">
       <c r="A9" s="1">
         <v>45</v>
       </c>
-      <c r="B9" s="39">
-        <f>A9*HU</f>
+      <c r="B9" s="32">
+        <f t="shared" si="0"/>
         <v>2002.5</v>
       </c>
       <c r="C9" s="16">
         <v>100</v>
       </c>
-      <c r="F9" s="38" t="s">
-        <v>60</v>
+      <c r="F9" s="31" t="s">
+        <v>59</v>
       </c>
       <c r="I9" s="17">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" ht="15" thickBot="1">
       <c r="A10" s="1">
         <v>44</v>
       </c>
-      <c r="B10" s="39">
-        <f>A10*HU</f>
+      <c r="B10" s="32">
+        <f t="shared" si="0"/>
         <v>1958</v>
       </c>
       <c r="C10" s="16"/>
       <c r="I10" s="17"/>
     </row>
-    <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" ht="15" thickBot="1">
       <c r="A11" s="1">
         <v>43</v>
       </c>
-      <c r="B11" s="39">
-        <f>A11*HU</f>
+      <c r="B11" s="32">
+        <f t="shared" si="0"/>
         <v>1913.5</v>
       </c>
       <c r="C11" s="16">
         <v>100</v>
       </c>
-      <c r="F11" s="38" t="s">
-        <v>61</v>
+      <c r="F11" s="31" t="s">
+        <v>60</v>
       </c>
       <c r="I11" s="17">
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" ht="15" thickBot="1">
       <c r="A12" s="1">
         <v>42</v>
       </c>
-      <c r="B12" s="39">
-        <f>A12*HU</f>
+      <c r="B12" s="32">
+        <f t="shared" si="0"/>
         <v>1869</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>41</v>
       </c>
-      <c r="B13" s="39">
-        <f>A13*HU</f>
+      <c r="B13" s="32">
+        <f t="shared" si="0"/>
         <v>1824.5</v>
       </c>
-      <c r="C13" s="42">
+      <c r="C13" s="47">
         <v>700</v>
       </c>
-      <c r="E13" s="48">
-        <v>1</v>
-      </c>
-      <c r="F13" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="H13" s="48">
-        <v>1</v>
-      </c>
-      <c r="I13" s="43">
+      <c r="E13" s="46">
+        <v>1</v>
+      </c>
+      <c r="F13" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="H13" s="46">
+        <v>1</v>
+      </c>
+      <c r="I13" s="48">
         <v>700</v>
       </c>
-      <c r="L13" s="42">
+      <c r="L13" s="47">
         <v>1</v>
       </c>
       <c r="M13" s="21"/>
-      <c r="N13" s="43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N13" s="48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15" thickBot="1">
       <c r="A14" s="1">
         <v>40</v>
       </c>
-      <c r="B14" s="39">
-        <f>A14*HU</f>
+      <c r="B14" s="32">
+        <f t="shared" si="0"/>
         <v>1780</v>
       </c>
-      <c r="C14" s="42"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="36"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="43"/>
-      <c r="L14" s="42"/>
+      <c r="C14" s="47"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="51"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="48"/>
+      <c r="L14" s="47"/>
       <c r="M14" s="21"/>
-      <c r="N14" s="43"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N14" s="48"/>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>39</v>
       </c>
-      <c r="B15" s="39">
-        <f>A15*HU</f>
+      <c r="B15" s="32">
+        <f t="shared" si="0"/>
         <v>1735.5</v>
       </c>
-      <c r="C15" s="42">
+      <c r="C15" s="47">
         <v>700</v>
       </c>
-      <c r="E15" s="48">
-        <v>1</v>
-      </c>
-      <c r="F15" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="H15" s="48">
-        <v>1</v>
-      </c>
-      <c r="I15" s="43">
+      <c r="E15" s="46">
+        <v>1</v>
+      </c>
+      <c r="F15" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="H15" s="46">
+        <v>1</v>
+      </c>
+      <c r="I15" s="48">
         <v>700</v>
       </c>
-      <c r="L15" s="42">
+      <c r="L15" s="47">
         <v>1</v>
       </c>
       <c r="M15" s="21"/>
-      <c r="N15" s="43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N15" s="48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15" thickBot="1">
       <c r="A16" s="1">
         <v>38</v>
       </c>
-      <c r="B16" s="39">
-        <f>A16*HU</f>
+      <c r="B16" s="32">
+        <f t="shared" si="0"/>
         <v>1691</v>
       </c>
-      <c r="C16" s="42"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="36"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="43"/>
-      <c r="L16" s="42"/>
+      <c r="C16" s="47"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="51"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="48"/>
+      <c r="L16" s="47"/>
       <c r="M16" s="21"/>
-      <c r="N16" s="43"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N16" s="48"/>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>37</v>
       </c>
-      <c r="B17" s="39">
-        <f>A17*HU</f>
+      <c r="B17" s="32">
+        <f t="shared" si="0"/>
         <v>1646.5</v>
       </c>
-      <c r="C17" s="42">
+      <c r="C17" s="47">
         <v>700</v>
       </c>
-      <c r="E17" s="48">
-        <v>1</v>
-      </c>
-      <c r="F17" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="H17" s="48">
-        <v>1</v>
-      </c>
-      <c r="I17" s="43">
+      <c r="E17" s="46">
+        <v>1</v>
+      </c>
+      <c r="F17" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="H17" s="46">
+        <v>1</v>
+      </c>
+      <c r="I17" s="48">
         <v>700</v>
       </c>
-      <c r="L17" s="42">
+      <c r="L17" s="47">
         <v>1</v>
       </c>
       <c r="M17" s="21"/>
-      <c r="N17" s="43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N17" s="48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="15" thickBot="1">
       <c r="A18" s="1">
         <v>36</v>
       </c>
-      <c r="B18" s="39">
-        <f>A18*HU</f>
+      <c r="B18" s="32">
+        <f t="shared" si="0"/>
         <v>1602</v>
       </c>
-      <c r="C18" s="42"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="36"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="43"/>
-      <c r="L18" s="42"/>
+      <c r="C18" s="47"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="51"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="48"/>
+      <c r="L18" s="47"/>
       <c r="M18" s="21"/>
-      <c r="N18" s="43"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N18" s="48"/>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>35</v>
       </c>
-      <c r="B19" s="39">
-        <f>A19*HU</f>
+      <c r="B19" s="32">
+        <f t="shared" si="0"/>
         <v>1557.5</v>
       </c>
-      <c r="C19" s="42">
+      <c r="C19" s="47">
         <v>700</v>
       </c>
-      <c r="E19" s="48">
-        <v>1</v>
-      </c>
-      <c r="F19" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="H19" s="48">
-        <v>1</v>
-      </c>
-      <c r="I19" s="43">
+      <c r="E19" s="46">
+        <v>1</v>
+      </c>
+      <c r="F19" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="H19" s="46">
+        <v>1</v>
+      </c>
+      <c r="I19" s="48">
         <v>700</v>
       </c>
-      <c r="L19" s="42">
+      <c r="L19" s="47">
         <v>1</v>
       </c>
       <c r="M19" s="21"/>
-      <c r="N19" s="43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N19" s="48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="15" thickBot="1">
       <c r="A20" s="1">
         <v>34</v>
       </c>
-      <c r="B20" s="39">
-        <f>A20*HU</f>
+      <c r="B20" s="32">
+        <f t="shared" si="0"/>
         <v>1513</v>
       </c>
-      <c r="C20" s="42"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="36"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="43"/>
-      <c r="L20" s="42"/>
+      <c r="C20" s="47"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="51"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="48"/>
+      <c r="L20" s="47"/>
       <c r="M20" s="21"/>
-      <c r="N20" s="43"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N20" s="48"/>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>33</v>
       </c>
-      <c r="B21" s="39">
-        <f>A21*HU</f>
+      <c r="B21" s="32">
+        <f t="shared" si="0"/>
         <v>1468.5</v>
       </c>
-      <c r="C21" s="42">
+      <c r="C21" s="47">
         <v>700</v>
       </c>
-      <c r="E21" s="48">
-        <v>1</v>
-      </c>
-      <c r="F21" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="H21" s="48">
-        <v>1</v>
-      </c>
-      <c r="I21" s="43">
+      <c r="E21" s="46">
+        <v>1</v>
+      </c>
+      <c r="F21" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="H21" s="46">
+        <v>1</v>
+      </c>
+      <c r="I21" s="48">
         <v>700</v>
       </c>
-      <c r="L21" s="42">
+      <c r="L21" s="47">
         <v>1</v>
       </c>
       <c r="M21" s="21"/>
-      <c r="N21" s="43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N21" s="48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="15" thickBot="1">
       <c r="A22" s="1">
         <v>32</v>
       </c>
-      <c r="B22" s="39">
-        <f>A22*HU</f>
+      <c r="B22" s="32">
+        <f t="shared" si="0"/>
         <v>1424</v>
       </c>
-      <c r="C22" s="42"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="36"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="43"/>
-      <c r="L22" s="42"/>
+      <c r="C22" s="47"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="51"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="48"/>
+      <c r="L22" s="47"/>
       <c r="M22" s="21"/>
-      <c r="N22" s="43"/>
-    </row>
-    <row r="23" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N22" s="48"/>
+    </row>
+    <row r="23" spans="1:14" ht="15" thickBot="1">
       <c r="A23" s="1">
         <v>31</v>
       </c>
-      <c r="B23" s="39">
-        <f>A23*HU</f>
+      <c r="B23" s="32">
+        <f t="shared" si="0"/>
         <v>1379.5</v>
       </c>
       <c r="F23" s="21"/>
-      <c r="M23" s="38" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M23" s="31" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="15" thickBot="1">
       <c r="A24" s="1">
         <v>30</v>
       </c>
-      <c r="B24" s="39">
-        <f>A24*HU</f>
+      <c r="B24" s="32">
+        <f t="shared" si="0"/>
         <v>1335</v>
       </c>
-      <c r="C24" s="44"/>
+      <c r="C24" s="35"/>
       <c r="F24" s="21"/>
       <c r="I24" s="22"/>
       <c r="M24" s="21"/>
     </row>
-    <row r="25" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" ht="15" thickBot="1">
       <c r="A25" s="1">
         <v>29</v>
       </c>
-      <c r="B25" s="39">
-        <f>A25*HU</f>
+      <c r="B25" s="32">
+        <f t="shared" si="0"/>
         <v>1290.5</v>
       </c>
-      <c r="C25" s="42">
+      <c r="C25" s="47">
         <v>700</v>
       </c>
-      <c r="F25" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="I25" s="43">
+      <c r="F25" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="I25" s="48">
         <v>700</v>
       </c>
-      <c r="L25" s="42">
+      <c r="L25" s="47">
         <v>4</v>
       </c>
-      <c r="M25" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="N25" s="43">
+      <c r="M25" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="N25" s="48">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" ht="15" thickBot="1">
       <c r="A26" s="1">
         <v>28</v>
       </c>
-      <c r="B26" s="39">
-        <f>A26*HU</f>
+      <c r="B26" s="32">
+        <f t="shared" si="0"/>
         <v>1246</v>
       </c>
-      <c r="C26" s="42"/>
-      <c r="F26" s="36"/>
-      <c r="I26" s="43"/>
-      <c r="L26" s="42"/>
+      <c r="C26" s="47"/>
+      <c r="F26" s="51"/>
+      <c r="I26" s="48"/>
+      <c r="L26" s="47"/>
       <c r="M26" s="21"/>
-      <c r="N26" s="43"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N26" s="48"/>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" s="1">
         <v>27</v>
       </c>
-      <c r="B27" s="39">
-        <f>A27*HU</f>
+      <c r="B27" s="32">
+        <f t="shared" si="0"/>
         <v>1201.5</v>
       </c>
-      <c r="C27" s="42">
+      <c r="C27" s="47">
         <v>700</v>
       </c>
-      <c r="F27" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="I27" s="43">
+      <c r="F27" s="49" t="s">
+        <v>63</v>
+      </c>
+      <c r="I27" s="48">
         <v>700</v>
       </c>
-      <c r="L27" s="42">
+      <c r="L27" s="47">
         <v>4</v>
       </c>
       <c r="M27" s="21"/>
-      <c r="N27" s="43">
+      <c r="N27" s="48">
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" ht="15" thickBot="1">
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" s="39">
-        <f>A28*HU</f>
+      <c r="B28" s="32">
+        <f t="shared" si="0"/>
         <v>1157</v>
       </c>
-      <c r="C28" s="42"/>
-      <c r="F28" s="36"/>
-      <c r="I28" s="43"/>
-      <c r="L28" s="42"/>
+      <c r="C28" s="47"/>
+      <c r="F28" s="51"/>
+      <c r="I28" s="48"/>
+      <c r="L28" s="47"/>
       <c r="M28" s="21"/>
-      <c r="N28" s="43"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N28" s="48"/>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" s="1">
         <v>25</v>
       </c>
-      <c r="B29" s="39">
-        <f>A29*HU</f>
+      <c r="B29" s="32">
+        <f t="shared" si="0"/>
         <v>1112.5</v>
       </c>
-      <c r="C29" s="44"/>
+      <c r="C29" s="35"/>
       <c r="F29" s="21"/>
       <c r="I29" s="22"/>
       <c r="M29" s="21"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14">
       <c r="A30" s="1">
         <v>24</v>
       </c>
-      <c r="B30" s="39">
-        <f>A30*HU</f>
+      <c r="B30" s="32">
+        <f t="shared" si="0"/>
         <v>1068</v>
       </c>
-      <c r="C30" s="44"/>
+      <c r="C30" s="35"/>
       <c r="F30" s="21"/>
       <c r="I30" s="22"/>
       <c r="M30" s="21"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14">
       <c r="A31" s="1">
         <v>23</v>
       </c>
-      <c r="B31" s="39">
-        <f>A31*HU</f>
+      <c r="B31" s="32">
+        <f t="shared" si="0"/>
         <v>1023.5</v>
       </c>
-      <c r="C31" s="44"/>
+      <c r="C31" s="35"/>
       <c r="F31" s="21"/>
       <c r="I31" s="22"/>
       <c r="M31" s="21"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14">
       <c r="A32" s="1">
         <v>22</v>
       </c>
-      <c r="B32" s="39">
-        <f>A32*HU</f>
+      <c r="B32" s="32">
+        <f t="shared" si="0"/>
         <v>979</v>
       </c>
-      <c r="C32" s="44"/>
+      <c r="C32" s="35"/>
       <c r="F32" s="21"/>
       <c r="I32" s="22"/>
       <c r="M32" s="21"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13">
       <c r="A33" s="1">
         <v>21</v>
       </c>
-      <c r="B33" s="39">
-        <f>A33*HU</f>
+      <c r="B33" s="32">
+        <f t="shared" si="0"/>
         <v>934.5</v>
       </c>
-      <c r="C33" s="44"/>
+      <c r="C33" s="35"/>
       <c r="F33" s="21"/>
       <c r="I33" s="22"/>
       <c r="M33" s="21"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13">
       <c r="A34" s="1">
         <v>20</v>
       </c>
-      <c r="B34" s="39">
-        <f>A34*HU</f>
+      <c r="B34" s="32">
+        <f t="shared" si="0"/>
         <v>890</v>
       </c>
       <c r="C34" s="16">
@@ -3061,7 +3058,7 @@
         <v>1</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G34" s="9">
         <v>1</v>
@@ -3070,260 +3067,279 @@
         <v>100</v>
       </c>
       <c r="M34" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="1">
         <v>19</v>
       </c>
-      <c r="B35" s="39">
-        <f>A35*HU</f>
+      <c r="B35" s="32">
+        <f t="shared" si="0"/>
         <v>845.5</v>
       </c>
       <c r="F35" s="10"/>
       <c r="M35" s="10"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13">
       <c r="A36" s="1">
         <v>18</v>
       </c>
-      <c r="B36" s="39">
-        <f>A36*HU</f>
+      <c r="B36" s="32">
+        <f t="shared" si="0"/>
         <v>801</v>
       </c>
-      <c r="C36" s="44"/>
+      <c r="C36" s="35"/>
       <c r="F36" s="21"/>
       <c r="I36" s="22"/>
       <c r="M36" s="21"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13">
       <c r="A37" s="1">
         <v>17</v>
       </c>
-      <c r="B37" s="39">
-        <f>A37*HU</f>
+      <c r="B37" s="32">
+        <f t="shared" si="0"/>
         <v>756.5</v>
       </c>
-      <c r="C37" s="44"/>
+      <c r="C37" s="35"/>
       <c r="F37" s="21"/>
       <c r="I37" s="22"/>
       <c r="M37" s="21"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13">
       <c r="A38" s="1">
         <v>16</v>
       </c>
-      <c r="B38" s="39">
-        <f>A38*HU</f>
+      <c r="B38" s="32">
+        <f t="shared" si="0"/>
         <v>712</v>
       </c>
-      <c r="C38" s="44"/>
+      <c r="C38" s="35"/>
       <c r="F38" s="21"/>
       <c r="I38" s="22"/>
       <c r="M38" s="21"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13">
       <c r="A39" s="1">
         <v>15</v>
       </c>
-      <c r="B39" s="39">
-        <f>A39*HU</f>
+      <c r="B39" s="32">
+        <f t="shared" si="0"/>
         <v>667.5</v>
       </c>
-      <c r="C39" s="44"/>
+      <c r="C39" s="35"/>
       <c r="F39" s="21"/>
       <c r="I39" s="22"/>
       <c r="M39" s="21"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13">
       <c r="A40" s="1">
         <v>14</v>
       </c>
-      <c r="B40" s="39">
-        <f>A40*HU</f>
+      <c r="B40" s="32">
+        <f t="shared" si="0"/>
         <v>623</v>
       </c>
-      <c r="C40" s="44"/>
+      <c r="C40" s="35"/>
       <c r="F40" s="21"/>
       <c r="I40" s="22"/>
       <c r="M40" s="21"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13">
       <c r="A41" s="1">
         <v>13</v>
       </c>
-      <c r="B41" s="39">
-        <f>A41*HU</f>
+      <c r="B41" s="32">
+        <f t="shared" si="0"/>
         <v>578.5</v>
       </c>
-      <c r="C41" s="44"/>
+      <c r="C41" s="35"/>
       <c r="F41" s="21"/>
       <c r="I41" s="22"/>
       <c r="M41" s="21"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13">
       <c r="A42" s="1">
         <v>12</v>
       </c>
-      <c r="B42" s="39">
-        <f>A42*HU</f>
+      <c r="B42" s="32">
+        <f t="shared" si="0"/>
         <v>534</v>
       </c>
-      <c r="C42" s="44"/>
+      <c r="C42" s="35"/>
       <c r="F42" s="21"/>
       <c r="I42" s="22"/>
       <c r="M42" s="21"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13">
       <c r="A43" s="1">
         <v>11</v>
       </c>
-      <c r="B43" s="39">
-        <f>A43*HU</f>
+      <c r="B43" s="32">
+        <f t="shared" si="0"/>
         <v>489.5</v>
       </c>
-      <c r="C43" s="44"/>
+      <c r="C43" s="35"/>
       <c r="F43" s="21"/>
       <c r="I43" s="22"/>
       <c r="M43" s="21"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13">
       <c r="A44" s="1">
         <v>10</v>
       </c>
-      <c r="B44" s="39">
-        <f>A44*HU</f>
+      <c r="B44" s="32">
+        <f t="shared" si="0"/>
         <v>445</v>
       </c>
-      <c r="C44" s="44"/>
+      <c r="C44" s="35"/>
       <c r="F44" s="21"/>
       <c r="I44" s="22"/>
       <c r="M44" s="21"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13">
       <c r="A45" s="1">
         <v>9</v>
       </c>
-      <c r="B45" s="39">
-        <f>A45*HU</f>
+      <c r="B45" s="32">
+        <f t="shared" si="0"/>
         <v>400.5</v>
       </c>
-      <c r="C45" s="44"/>
+      <c r="C45" s="35"/>
       <c r="F45" s="21"/>
       <c r="I45" s="22"/>
       <c r="M45" s="21"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13">
       <c r="A46" s="1">
         <v>8</v>
       </c>
-      <c r="B46" s="39">
-        <f>A46*HU</f>
+      <c r="B46" s="32">
+        <f t="shared" si="0"/>
         <v>356</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13" ht="15" thickBot="1">
       <c r="A47" s="1">
         <v>7</v>
       </c>
-      <c r="B47" s="39">
-        <f>A47*HU</f>
+      <c r="B47" s="32">
+        <f t="shared" si="0"/>
         <v>311.5</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13">
       <c r="A48" s="1">
         <v>6</v>
       </c>
-      <c r="B48" s="39">
-        <f>A48*HU</f>
+      <c r="B48" s="32">
+        <f t="shared" si="0"/>
         <v>267</v>
       </c>
-      <c r="F48" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="M48" s="35" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="F48" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="M48" s="49" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="1">
         <v>5</v>
       </c>
-      <c r="B49" s="39">
-        <f>A49*HU</f>
+      <c r="B49" s="32">
+        <f t="shared" si="0"/>
         <v>222.5</v>
       </c>
-      <c r="F49" s="37"/>
-      <c r="M49" s="37"/>
-    </row>
-    <row r="50" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F49" s="50"/>
+      <c r="M49" s="50"/>
+    </row>
+    <row r="50" spans="1:13" ht="15" thickBot="1">
       <c r="A50" s="1">
         <v>4</v>
       </c>
-      <c r="B50" s="39">
-        <f>A50*HU</f>
+      <c r="B50" s="32">
+        <f t="shared" si="0"/>
         <v>178</v>
       </c>
-      <c r="F50" s="36"/>
-      <c r="M50" s="36"/>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="F50" s="51"/>
+      <c r="M50" s="51"/>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" s="1">
         <v>3</v>
       </c>
-      <c r="B51" s="39">
-        <f>A51*HU</f>
+      <c r="B51" s="32">
+        <f t="shared" si="0"/>
         <v>133.5</v>
       </c>
-      <c r="F51" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="M51" s="35" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="F51" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="M51" s="49" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" s="1">
         <v>2</v>
       </c>
-      <c r="B52" s="39">
-        <f>A52*HU</f>
+      <c r="B52" s="32">
+        <f t="shared" si="0"/>
         <v>89</v>
       </c>
-      <c r="F52" s="37"/>
-      <c r="M52" s="37"/>
-    </row>
-    <row r="53" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F52" s="50"/>
+      <c r="M52" s="50"/>
+    </row>
+    <row r="53" spans="1:13" ht="15" thickBot="1">
       <c r="A53" s="1">
         <v>1</v>
       </c>
-      <c r="B53" s="39">
-        <f>A53*HU</f>
+      <c r="B53" s="32">
+        <f t="shared" si="0"/>
         <v>44.5</v>
       </c>
-      <c r="F53" s="36"/>
-      <c r="M53" s="36"/>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="F53" s="51"/>
+      <c r="M53" s="51"/>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" s="1">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="N27:N28"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="F51:F53"/>
+    <mergeCell ref="F48:F50"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="M48:M50"/>
+    <mergeCell ref="M51:M53"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="L19:L20"/>
     <mergeCell ref="N15:N16"/>
     <mergeCell ref="N17:N18"/>
     <mergeCell ref="N19:N20"/>
@@ -3333,37 +3349,18 @@
     <mergeCell ref="E13:E14"/>
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="E17:E18"/>
-    <mergeCell ref="M48:M50"/>
-    <mergeCell ref="M51:M53"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="I27:I28"/>
     <mergeCell ref="I13:I14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="F51:F53"/>
-    <mergeCell ref="F48:F50"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="L21:L22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3377,37 +3374,37 @@
       <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="2" width="8.88671875" style="1"/>
-    <col min="3" max="3" width="8.88671875" style="14"/>
-    <col min="4" max="5" width="8.88671875" style="9"/>
-    <col min="6" max="6" width="29.6640625" style="9" customWidth="1"/>
-    <col min="7" max="8" width="8.88671875" style="9"/>
-    <col min="9" max="9" width="8.88671875" style="15"/>
-    <col min="12" max="12" width="8.88671875" style="14"/>
-    <col min="13" max="13" width="40.33203125" style="9" customWidth="1"/>
-    <col min="14" max="14" width="8.88671875" style="15"/>
+    <col min="1" max="2" width="8.875" style="1"/>
+    <col min="3" max="3" width="8.875" style="14"/>
+    <col min="4" max="5" width="8.875" style="9"/>
+    <col min="6" max="6" width="29.625" style="9" customWidth="1"/>
+    <col min="7" max="8" width="8.875" style="9"/>
+    <col min="9" max="9" width="8.875" style="15"/>
+    <col min="12" max="12" width="8.875" style="14"/>
+    <col min="13" max="13" width="40.375" style="9" customWidth="1"/>
+    <col min="14" max="14" width="8.875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="25.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="26.25">
       <c r="C1" s="11"/>
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
-      <c r="F1" s="45" t="s">
-        <v>67</v>
+      <c r="F1" s="36" t="s">
+        <v>66</v>
       </c>
       <c r="G1" s="12"/>
       <c r="H1" s="12"/>
       <c r="I1" s="13"/>
       <c r="L1" s="11"/>
-      <c r="M1" s="45" t="s">
-        <v>68</v>
+      <c r="M1" s="36" t="s">
+        <v>67</v>
       </c>
       <c r="N1" s="13"/>
     </row>
-    <row r="2" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="44"/>
+    <row r="2" spans="1:14" ht="14.45" customHeight="1">
+      <c r="C2" s="35"/>
       <c r="D2" s="21"/>
       <c r="E2" s="21"/>
       <c r="F2" s="21"/>
@@ -3415,601 +3412,601 @@
       <c r="H2" s="21"/>
       <c r="I2" s="22"/>
     </row>
-    <row r="3" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="44"/>
+    <row r="3" spans="1:14" ht="14.45" customHeight="1">
+      <c r="C3" s="35"/>
       <c r="D3" s="21"/>
-      <c r="E3" s="47">
+      <c r="E3" s="38">
         <f>SUM(E13:E22)</f>
         <v>5</v>
       </c>
       <c r="F3" s="21"/>
       <c r="G3" s="21"/>
-      <c r="H3" s="47">
+      <c r="H3" s="38">
         <f>SUM(H13:H22)</f>
         <v>5</v>
       </c>
       <c r="I3" s="22"/>
-      <c r="L3" s="40">
+      <c r="L3" s="33">
         <f>SUM(L12:L29)</f>
         <v>13</v>
       </c>
-      <c r="M3" s="46"/>
-      <c r="N3" s="41">
+      <c r="M3" s="37"/>
+      <c r="N3" s="34">
         <f>SUM(N12:N29)</f>
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="15">
       <c r="A4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="40">
+        <v>53</v>
+      </c>
+      <c r="C4" s="33">
         <f>SUM(C6:C53)</f>
         <v>5300</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="44"/>
+      <c r="G4" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="25"/>
-      <c r="G4" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="H4" s="25"/>
-      <c r="I4" s="41">
+      <c r="H4" s="44"/>
+      <c r="I4" s="34">
         <f>SUM(I13:I53)</f>
         <v>5000</v>
       </c>
-      <c r="L4" s="40" t="s">
+      <c r="L4" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="N4" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="N4" s="17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>44.5</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D5" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>58</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>59</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="H5" s="10" t="s">
-        <v>59</v>
-      </c>
       <c r="I5" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L5" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M5" s="10"/>
       <c r="N5" s="17" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15" thickBot="1">
       <c r="A6" s="1">
         <v>48</v>
       </c>
-      <c r="B6" s="39">
-        <f>A6*HU</f>
+      <c r="B6" s="32">
+        <f t="shared" ref="B6:B53" si="0">A6*HU</f>
         <v>2136</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" ht="15" thickBot="1">
       <c r="A7" s="1">
         <v>47</v>
       </c>
-      <c r="B7" s="39">
-        <f>A7*HU</f>
+      <c r="B7" s="32">
+        <f t="shared" si="0"/>
         <v>2091.5</v>
       </c>
       <c r="C7" s="16">
         <v>100</v>
       </c>
-      <c r="F7" s="38" t="s">
-        <v>60</v>
+      <c r="F7" s="31" t="s">
+        <v>59</v>
       </c>
       <c r="I7" s="17">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" ht="15" thickBot="1">
       <c r="A8" s="1">
         <v>46</v>
       </c>
-      <c r="B8" s="39">
-        <f>A8*HU</f>
+      <c r="B8" s="32">
+        <f t="shared" si="0"/>
         <v>2047</v>
       </c>
       <c r="C8" s="16"/>
       <c r="I8" s="17"/>
     </row>
-    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" ht="15" thickBot="1">
       <c r="A9" s="1">
         <v>45</v>
       </c>
-      <c r="B9" s="39">
-        <f>A9*HU</f>
+      <c r="B9" s="32">
+        <f t="shared" si="0"/>
         <v>2002.5</v>
       </c>
       <c r="C9" s="16">
         <v>100</v>
       </c>
-      <c r="F9" s="38" t="s">
-        <v>60</v>
+      <c r="F9" s="31" t="s">
+        <v>59</v>
       </c>
       <c r="I9" s="17">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" ht="15" thickBot="1">
       <c r="A10" s="1">
         <v>44</v>
       </c>
-      <c r="B10" s="39">
-        <f>A10*HU</f>
+      <c r="B10" s="32">
+        <f t="shared" si="0"/>
         <v>1958</v>
       </c>
       <c r="C10" s="16"/>
       <c r="I10" s="17"/>
     </row>
-    <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" ht="15" thickBot="1">
       <c r="A11" s="1">
         <v>43</v>
       </c>
-      <c r="B11" s="39">
-        <f>A11*HU</f>
+      <c r="B11" s="32">
+        <f t="shared" si="0"/>
         <v>1913.5</v>
       </c>
       <c r="C11" s="16">
         <v>100</v>
       </c>
-      <c r="F11" s="38" t="s">
-        <v>61</v>
+      <c r="F11" s="31" t="s">
+        <v>60</v>
       </c>
       <c r="I11" s="17">
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" ht="15" thickBot="1">
       <c r="A12" s="1">
         <v>42</v>
       </c>
-      <c r="B12" s="39">
-        <f>A12*HU</f>
+      <c r="B12" s="32">
+        <f t="shared" si="0"/>
         <v>1869</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>41</v>
       </c>
-      <c r="B13" s="39">
-        <f>A13*HU</f>
+      <c r="B13" s="32">
+        <f t="shared" si="0"/>
         <v>1824.5</v>
       </c>
-      <c r="C13" s="42">
+      <c r="C13" s="47">
         <v>700</v>
       </c>
-      <c r="E13" s="48">
-        <v>1</v>
-      </c>
-      <c r="F13" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="H13" s="48">
-        <v>1</v>
-      </c>
-      <c r="I13" s="43">
+      <c r="E13" s="46">
+        <v>1</v>
+      </c>
+      <c r="F13" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="H13" s="46">
+        <v>1</v>
+      </c>
+      <c r="I13" s="48">
         <v>700</v>
       </c>
-      <c r="L13" s="42">
+      <c r="L13" s="47">
         <v>1</v>
       </c>
       <c r="M13" s="21"/>
-      <c r="N13" s="43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N13" s="48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15" thickBot="1">
       <c r="A14" s="1">
         <v>40</v>
       </c>
-      <c r="B14" s="39">
-        <f>A14*HU</f>
+      <c r="B14" s="32">
+        <f t="shared" si="0"/>
         <v>1780</v>
       </c>
-      <c r="C14" s="42"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="36"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="43"/>
-      <c r="L14" s="42"/>
+      <c r="C14" s="47"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="51"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="48"/>
+      <c r="L14" s="47"/>
       <c r="M14" s="21"/>
-      <c r="N14" s="43"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N14" s="48"/>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>39</v>
       </c>
-      <c r="B15" s="39">
-        <f>A15*HU</f>
+      <c r="B15" s="32">
+        <f t="shared" si="0"/>
         <v>1735.5</v>
       </c>
-      <c r="C15" s="42">
+      <c r="C15" s="47">
         <v>700</v>
       </c>
-      <c r="E15" s="48">
-        <v>1</v>
-      </c>
-      <c r="F15" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="H15" s="48">
-        <v>1</v>
-      </c>
-      <c r="I15" s="43">
+      <c r="E15" s="46">
+        <v>1</v>
+      </c>
+      <c r="F15" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="H15" s="46">
+        <v>1</v>
+      </c>
+      <c r="I15" s="48">
         <v>700</v>
       </c>
-      <c r="L15" s="42">
+      <c r="L15" s="47">
         <v>1</v>
       </c>
       <c r="M15" s="21"/>
-      <c r="N15" s="43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N15" s="48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15" thickBot="1">
       <c r="A16" s="1">
         <v>38</v>
       </c>
-      <c r="B16" s="39">
-        <f>A16*HU</f>
+      <c r="B16" s="32">
+        <f t="shared" si="0"/>
         <v>1691</v>
       </c>
-      <c r="C16" s="42"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="36"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="43"/>
-      <c r="L16" s="42"/>
+      <c r="C16" s="47"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="51"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="48"/>
+      <c r="L16" s="47"/>
       <c r="M16" s="21"/>
-      <c r="N16" s="43"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N16" s="48"/>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>37</v>
       </c>
-      <c r="B17" s="39">
-        <f>A17*HU</f>
+      <c r="B17" s="32">
+        <f t="shared" si="0"/>
         <v>1646.5</v>
       </c>
-      <c r="C17" s="42">
+      <c r="C17" s="47">
         <v>700</v>
       </c>
-      <c r="E17" s="48">
-        <v>1</v>
-      </c>
-      <c r="F17" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="H17" s="48">
-        <v>1</v>
-      </c>
-      <c r="I17" s="43">
+      <c r="E17" s="46">
+        <v>1</v>
+      </c>
+      <c r="F17" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="H17" s="46">
+        <v>1</v>
+      </c>
+      <c r="I17" s="48">
         <v>700</v>
       </c>
-      <c r="L17" s="42">
+      <c r="L17" s="47">
         <v>1</v>
       </c>
       <c r="M17" s="21"/>
-      <c r="N17" s="43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N17" s="48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="15" thickBot="1">
       <c r="A18" s="1">
         <v>36</v>
       </c>
-      <c r="B18" s="39">
-        <f>A18*HU</f>
+      <c r="B18" s="32">
+        <f t="shared" si="0"/>
         <v>1602</v>
       </c>
-      <c r="C18" s="42"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="36"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="43"/>
-      <c r="L18" s="42"/>
+      <c r="C18" s="47"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="51"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="48"/>
+      <c r="L18" s="47"/>
       <c r="M18" s="21"/>
-      <c r="N18" s="43"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N18" s="48"/>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>35</v>
       </c>
-      <c r="B19" s="39">
-        <f>A19*HU</f>
+      <c r="B19" s="32">
+        <f t="shared" si="0"/>
         <v>1557.5</v>
       </c>
-      <c r="C19" s="42">
+      <c r="C19" s="47">
         <v>700</v>
       </c>
-      <c r="E19" s="48">
-        <v>1</v>
-      </c>
-      <c r="F19" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="H19" s="48">
-        <v>1</v>
-      </c>
-      <c r="I19" s="43">
+      <c r="E19" s="46">
+        <v>1</v>
+      </c>
+      <c r="F19" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="H19" s="46">
+        <v>1</v>
+      </c>
+      <c r="I19" s="48">
         <v>700</v>
       </c>
-      <c r="L19" s="42">
+      <c r="L19" s="47">
         <v>1</v>
       </c>
       <c r="M19" s="21"/>
-      <c r="N19" s="43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N19" s="48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="15" thickBot="1">
       <c r="A20" s="1">
         <v>34</v>
       </c>
-      <c r="B20" s="39">
-        <f>A20*HU</f>
+      <c r="B20" s="32">
+        <f t="shared" si="0"/>
         <v>1513</v>
       </c>
-      <c r="C20" s="42"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="36"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="43"/>
-      <c r="L20" s="42"/>
+      <c r="C20" s="47"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="51"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="48"/>
+      <c r="L20" s="47"/>
       <c r="M20" s="21"/>
-      <c r="N20" s="43"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N20" s="48"/>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>33</v>
       </c>
-      <c r="B21" s="39">
-        <f>A21*HU</f>
+      <c r="B21" s="32">
+        <f t="shared" si="0"/>
         <v>1468.5</v>
       </c>
-      <c r="C21" s="42">
+      <c r="C21" s="47">
         <v>700</v>
       </c>
-      <c r="E21" s="48">
-        <v>1</v>
-      </c>
-      <c r="F21" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="H21" s="48">
-        <v>1</v>
-      </c>
-      <c r="I21" s="43">
+      <c r="E21" s="46">
+        <v>1</v>
+      </c>
+      <c r="F21" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="H21" s="46">
+        <v>1</v>
+      </c>
+      <c r="I21" s="48">
         <v>700</v>
       </c>
-      <c r="L21" s="42">
+      <c r="L21" s="47">
         <v>1</v>
       </c>
       <c r="M21" s="21"/>
-      <c r="N21" s="43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N21" s="48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="15" thickBot="1">
       <c r="A22" s="1">
         <v>32</v>
       </c>
-      <c r="B22" s="39">
-        <f>A22*HU</f>
+      <c r="B22" s="32">
+        <f t="shared" si="0"/>
         <v>1424</v>
       </c>
-      <c r="C22" s="42"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="36"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="43"/>
-      <c r="L22" s="42"/>
+      <c r="C22" s="47"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="51"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="48"/>
+      <c r="L22" s="47"/>
       <c r="M22" s="21"/>
-      <c r="N22" s="43"/>
-    </row>
-    <row r="23" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N22" s="48"/>
+    </row>
+    <row r="23" spans="1:14" ht="15" thickBot="1">
       <c r="A23" s="1">
         <v>31</v>
       </c>
-      <c r="B23" s="39">
-        <f>A23*HU</f>
+      <c r="B23" s="32">
+        <f t="shared" si="0"/>
         <v>1379.5</v>
       </c>
       <c r="F23" s="21"/>
-      <c r="M23" s="38" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M23" s="31" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="15" thickBot="1">
       <c r="A24" s="1">
         <v>30</v>
       </c>
-      <c r="B24" s="39">
-        <f>A24*HU</f>
+      <c r="B24" s="32">
+        <f t="shared" si="0"/>
         <v>1335</v>
       </c>
-      <c r="C24" s="44"/>
+      <c r="C24" s="35"/>
       <c r="F24" s="21"/>
       <c r="I24" s="22"/>
       <c r="M24" s="21"/>
     </row>
-    <row r="25" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" ht="15" thickBot="1">
       <c r="A25" s="1">
         <v>29</v>
       </c>
-      <c r="B25" s="39">
-        <f>A25*HU</f>
+      <c r="B25" s="32">
+        <f t="shared" si="0"/>
         <v>1290.5</v>
       </c>
-      <c r="C25" s="42">
+      <c r="C25" s="47">
         <v>700</v>
       </c>
-      <c r="F25" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="I25" s="43">
+      <c r="F25" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="I25" s="48">
         <v>700</v>
       </c>
-      <c r="L25" s="42">
+      <c r="L25" s="47">
         <v>4</v>
       </c>
-      <c r="M25" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="N25" s="43">
+      <c r="M25" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="N25" s="48">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" ht="15" thickBot="1">
       <c r="A26" s="1">
         <v>28</v>
       </c>
-      <c r="B26" s="39">
-        <f>A26*HU</f>
+      <c r="B26" s="32">
+        <f t="shared" si="0"/>
         <v>1246</v>
       </c>
-      <c r="C26" s="42"/>
-      <c r="F26" s="36"/>
-      <c r="I26" s="43"/>
-      <c r="L26" s="42"/>
+      <c r="C26" s="47"/>
+      <c r="F26" s="51"/>
+      <c r="I26" s="48"/>
+      <c r="L26" s="47"/>
       <c r="M26" s="21"/>
-      <c r="N26" s="43"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N26" s="48"/>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" s="1">
         <v>27</v>
       </c>
-      <c r="B27" s="39">
-        <f>A27*HU</f>
+      <c r="B27" s="32">
+        <f t="shared" si="0"/>
         <v>1201.5</v>
       </c>
-      <c r="C27" s="42">
+      <c r="C27" s="47">
         <v>700</v>
       </c>
-      <c r="F27" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="I27" s="43">
+      <c r="F27" s="49" t="s">
+        <v>63</v>
+      </c>
+      <c r="I27" s="48">
         <v>700</v>
       </c>
-      <c r="L27" s="42">
+      <c r="L27" s="47">
         <v>4</v>
       </c>
       <c r="M27" s="21"/>
-      <c r="N27" s="43">
+      <c r="N27" s="48">
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" ht="15" thickBot="1">
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" s="39">
-        <f>A28*HU</f>
+      <c r="B28" s="32">
+        <f t="shared" si="0"/>
         <v>1157</v>
       </c>
-      <c r="C28" s="42"/>
-      <c r="F28" s="36"/>
-      <c r="I28" s="43"/>
-      <c r="L28" s="42"/>
+      <c r="C28" s="47"/>
+      <c r="F28" s="51"/>
+      <c r="I28" s="48"/>
+      <c r="L28" s="47"/>
       <c r="M28" s="21"/>
-      <c r="N28" s="43"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N28" s="48"/>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" s="1">
         <v>25</v>
       </c>
-      <c r="B29" s="39">
-        <f>A29*HU</f>
+      <c r="B29" s="32">
+        <f t="shared" si="0"/>
         <v>1112.5</v>
       </c>
-      <c r="C29" s="44"/>
+      <c r="C29" s="35"/>
       <c r="F29" s="21"/>
       <c r="I29" s="22"/>
       <c r="M29" s="21"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14">
       <c r="A30" s="1">
         <v>24</v>
       </c>
-      <c r="B30" s="39">
-        <f>A30*HU</f>
+      <c r="B30" s="32">
+        <f t="shared" si="0"/>
         <v>1068</v>
       </c>
-      <c r="C30" s="44"/>
+      <c r="C30" s="35"/>
       <c r="F30" s="21"/>
       <c r="I30" s="22"/>
       <c r="M30" s="21"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14">
       <c r="A31" s="1">
         <v>23</v>
       </c>
-      <c r="B31" s="39">
-        <f>A31*HU</f>
+      <c r="B31" s="32">
+        <f t="shared" si="0"/>
         <v>1023.5</v>
       </c>
-      <c r="C31" s="44"/>
+      <c r="C31" s="35"/>
       <c r="F31" s="21"/>
       <c r="I31" s="22"/>
       <c r="M31" s="21"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14">
       <c r="A32" s="1">
         <v>22</v>
       </c>
-      <c r="B32" s="39">
-        <f>A32*HU</f>
+      <c r="B32" s="32">
+        <f t="shared" si="0"/>
         <v>979</v>
       </c>
-      <c r="C32" s="44"/>
+      <c r="C32" s="35"/>
       <c r="F32" s="21"/>
       <c r="I32" s="22"/>
       <c r="M32" s="21"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13">
       <c r="A33" s="1">
         <v>21</v>
       </c>
-      <c r="B33" s="39">
-        <f>A33*HU</f>
+      <c r="B33" s="32">
+        <f t="shared" si="0"/>
         <v>934.5</v>
       </c>
-      <c r="C33" s="44"/>
+      <c r="C33" s="35"/>
       <c r="F33" s="21"/>
       <c r="I33" s="22"/>
       <c r="M33" s="21"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13">
       <c r="A34" s="1">
         <v>20</v>
       </c>
-      <c r="B34" s="39">
-        <f>A34*HU</f>
+      <c r="B34" s="32">
+        <f t="shared" si="0"/>
         <v>890</v>
       </c>
       <c r="C34" s="16">
@@ -4019,7 +4016,7 @@
         <v>1</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G34" s="9">
         <v>1</v>
@@ -4028,255 +4025,279 @@
         <v>100</v>
       </c>
       <c r="M34" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="1">
         <v>19</v>
       </c>
-      <c r="B35" s="39">
-        <f>A35*HU</f>
+      <c r="B35" s="32">
+        <f t="shared" si="0"/>
         <v>845.5</v>
       </c>
       <c r="F35" s="10"/>
       <c r="M35" s="10"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13">
       <c r="A36" s="1">
         <v>18</v>
       </c>
-      <c r="B36" s="39">
-        <f>A36*HU</f>
+      <c r="B36" s="32">
+        <f t="shared" si="0"/>
         <v>801</v>
       </c>
-      <c r="C36" s="44"/>
+      <c r="C36" s="35"/>
       <c r="F36" s="21"/>
       <c r="I36" s="22"/>
       <c r="M36" s="21"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13">
       <c r="A37" s="1">
         <v>17</v>
       </c>
-      <c r="B37" s="39">
-        <f>A37*HU</f>
+      <c r="B37" s="32">
+        <f t="shared" si="0"/>
         <v>756.5</v>
       </c>
-      <c r="C37" s="44"/>
+      <c r="C37" s="35"/>
       <c r="F37" s="21"/>
       <c r="I37" s="22"/>
       <c r="M37" s="21"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13">
       <c r="A38" s="1">
         <v>16</v>
       </c>
-      <c r="B38" s="39">
-        <f>A38*HU</f>
+      <c r="B38" s="32">
+        <f t="shared" si="0"/>
         <v>712</v>
       </c>
-      <c r="C38" s="44"/>
+      <c r="C38" s="35"/>
       <c r="F38" s="21"/>
       <c r="I38" s="22"/>
       <c r="M38" s="21"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13">
       <c r="A39" s="1">
         <v>15</v>
       </c>
-      <c r="B39" s="39">
-        <f>A39*HU</f>
+      <c r="B39" s="32">
+        <f t="shared" si="0"/>
         <v>667.5</v>
       </c>
-      <c r="C39" s="44"/>
+      <c r="C39" s="35"/>
       <c r="F39" s="21"/>
       <c r="I39" s="22"/>
       <c r="M39" s="21"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13">
       <c r="A40" s="1">
         <v>14</v>
       </c>
-      <c r="B40" s="39">
-        <f>A40*HU</f>
+      <c r="B40" s="32">
+        <f t="shared" si="0"/>
         <v>623</v>
       </c>
-      <c r="C40" s="44"/>
+      <c r="C40" s="35"/>
       <c r="F40" s="21"/>
       <c r="I40" s="22"/>
       <c r="M40" s="21"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13">
       <c r="A41" s="1">
         <v>13</v>
       </c>
-      <c r="B41" s="39">
-        <f>A41*HU</f>
+      <c r="B41" s="32">
+        <f t="shared" si="0"/>
         <v>578.5</v>
       </c>
-      <c r="C41" s="44"/>
+      <c r="C41" s="35"/>
       <c r="F41" s="21"/>
       <c r="I41" s="22"/>
       <c r="M41" s="21"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13">
       <c r="A42" s="1">
         <v>12</v>
       </c>
-      <c r="B42" s="39">
-        <f>A42*HU</f>
+      <c r="B42" s="32">
+        <f t="shared" si="0"/>
         <v>534</v>
       </c>
-      <c r="C42" s="44"/>
+      <c r="C42" s="35"/>
       <c r="F42" s="21"/>
       <c r="I42" s="22"/>
       <c r="M42" s="21"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13">
       <c r="A43" s="1">
         <v>11</v>
       </c>
-      <c r="B43" s="39">
-        <f>A43*HU</f>
+      <c r="B43" s="32">
+        <f t="shared" si="0"/>
         <v>489.5</v>
       </c>
-      <c r="C43" s="44"/>
+      <c r="C43" s="35"/>
       <c r="F43" s="21"/>
       <c r="I43" s="22"/>
       <c r="M43" s="21"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13">
       <c r="A44" s="1">
         <v>10</v>
       </c>
-      <c r="B44" s="39">
-        <f>A44*HU</f>
+      <c r="B44" s="32">
+        <f t="shared" si="0"/>
         <v>445</v>
       </c>
-      <c r="C44" s="44"/>
+      <c r="C44" s="35"/>
       <c r="F44" s="21"/>
       <c r="I44" s="22"/>
       <c r="M44" s="21"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13">
       <c r="A45" s="1">
         <v>9</v>
       </c>
-      <c r="B45" s="39">
-        <f>A45*HU</f>
+      <c r="B45" s="32">
+        <f t="shared" si="0"/>
         <v>400.5</v>
       </c>
-      <c r="C45" s="44"/>
+      <c r="C45" s="35"/>
       <c r="F45" s="21"/>
       <c r="I45" s="22"/>
       <c r="M45" s="21"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13">
       <c r="A46" s="1">
         <v>8</v>
       </c>
-      <c r="B46" s="39">
-        <f>A46*HU</f>
+      <c r="B46" s="32">
+        <f t="shared" si="0"/>
         <v>356</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13" ht="15" thickBot="1">
       <c r="A47" s="1">
         <v>7</v>
       </c>
-      <c r="B47" s="39">
-        <f>A47*HU</f>
+      <c r="B47" s="32">
+        <f t="shared" si="0"/>
         <v>311.5</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13">
       <c r="A48" s="1">
         <v>6</v>
       </c>
-      <c r="B48" s="39">
-        <f>A48*HU</f>
+      <c r="B48" s="32">
+        <f t="shared" si="0"/>
         <v>267</v>
       </c>
-      <c r="F48" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="M48" s="35" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="F48" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="M48" s="49" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="1">
         <v>5</v>
       </c>
-      <c r="B49" s="39">
-        <f>A49*HU</f>
+      <c r="B49" s="32">
+        <f t="shared" si="0"/>
         <v>222.5</v>
       </c>
-      <c r="F49" s="37"/>
-      <c r="M49" s="37"/>
-    </row>
-    <row r="50" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F49" s="50"/>
+      <c r="M49" s="50"/>
+    </row>
+    <row r="50" spans="1:13" ht="15" thickBot="1">
       <c r="A50" s="1">
         <v>4</v>
       </c>
-      <c r="B50" s="39">
-        <f>A50*HU</f>
+      <c r="B50" s="32">
+        <f t="shared" si="0"/>
         <v>178</v>
       </c>
-      <c r="F50" s="36"/>
-      <c r="M50" s="36"/>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="F50" s="51"/>
+      <c r="M50" s="51"/>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" s="1">
         <v>3</v>
       </c>
-      <c r="B51" s="39">
-        <f>A51*HU</f>
+      <c r="B51" s="32">
+        <f t="shared" si="0"/>
         <v>133.5</v>
       </c>
-      <c r="F51" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="M51" s="35" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="F51" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="M51" s="49" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" s="1">
         <v>2</v>
       </c>
-      <c r="B52" s="39">
-        <f>A52*HU</f>
+      <c r="B52" s="32">
+        <f t="shared" si="0"/>
         <v>89</v>
       </c>
-      <c r="F52" s="37"/>
-      <c r="M52" s="37"/>
-    </row>
-    <row r="53" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F52" s="50"/>
+      <c r="M52" s="50"/>
+    </row>
+    <row r="53" spans="1:13" ht="15" thickBot="1">
       <c r="A53" s="1">
         <v>1</v>
       </c>
-      <c r="B53" s="39">
-        <f>A53*HU</f>
+      <c r="B53" s="32">
+        <f t="shared" si="0"/>
         <v>44.5</v>
       </c>
-      <c r="F53" s="36"/>
-      <c r="M53" s="36"/>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="F53" s="51"/>
+      <c r="M53" s="51"/>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" s="1">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="F51:F53"/>
-    <mergeCell ref="M51:M53"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="L17:L18"/>
     <mergeCell ref="N27:N28"/>
     <mergeCell ref="F48:F50"/>
     <mergeCell ref="M48:M50"/>
@@ -4292,36 +4313,12 @@
     <mergeCell ref="H21:H22"/>
     <mergeCell ref="I21:I22"/>
     <mergeCell ref="L21:L22"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="F51:F53"/>
+    <mergeCell ref="M51:M53"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="L27:L28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
